--- a/METEORA ECOMMERCE.xlsx
+++ b/METEORA ECOMMERCE.xlsx
@@ -1,47 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50af8f9ca91dedfa/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50af8f9ca91dedfa/Curso Análise de dados Alura e Fiap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{F41B03FA-EBAC-46FA-8072-0F2085A59B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC55DE56-7DFC-484A-A478-EE2A890FF5B8}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{A911A823-C1B4-4C00-AE14-E050BF8D1A96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4430C65E-A815-46E8-927B-7B0373D52176}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EA1BE3FB-7206-429E-B5F8-9D0A8D172691}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA1BE3FB-7206-429E-B5F8-9D0A8D172691}"/>
   </bookViews>
   <sheets>
-    <sheet name="Produtos" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabela de Produtos" sheetId="3" r:id="rId2"/>
-    <sheet name="Gráfico dinâmico" sheetId="4" r:id="rId3"/>
+    <sheet name="Tabela_Formatada" sheetId="3" r:id="rId1"/>
+    <sheet name="Médias_Ref_Estruturada" sheetId="7" r:id="rId2"/>
+    <sheet name="Filtro_Avançado" sheetId="5" r:id="rId3"/>
+    <sheet name="Gráfico_dinâmico" sheetId="4" r:id="rId4"/>
+    <sheet name="Tabela_manual" sheetId="2" r:id="rId5"/>
+    <sheet name="Médias" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Tabela_manual!$A$3:$G$23</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">Filtro_Avançado!$B$7:$H$7</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">Filtro_Avançado!$B$3:$C$4</definedName>
+    <definedName name="int_nome_produto">Tabela_manual!$A$4:$A$23</definedName>
+    <definedName name="int_quantidade">Tabela_manual!$F$4:$F$23</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="283" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="41">
   <si>
     <t>Meteora</t>
   </si>
@@ -70,21 +69,6 @@
     <t>Desconto</t>
   </si>
   <si>
-    <t>Camiseta Lisa</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Vestuário</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>Óculos</t>
   </si>
   <si>
@@ -94,16 +78,16 @@
     <t>Acessórios</t>
   </si>
   <si>
-    <t>Jaqueta</t>
+    <t>Jaqueta couro</t>
   </si>
   <si>
-    <t>Calça</t>
+    <t>G</t>
   </si>
   <si>
-    <t>Vestido</t>
+    <t>Vestuário</t>
   </si>
   <si>
-    <t>Bermuda</t>
+    <t>M</t>
   </si>
   <si>
     <t>Tênis</t>
@@ -112,22 +96,73 @@
     <t>Sapato</t>
   </si>
   <si>
-    <t>Bolsa</t>
+    <t>Bolsa couro</t>
+  </si>
+  <si>
+    <t>Jaqueta</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Vestido</t>
   </si>
   <si>
     <t>Boné</t>
   </si>
   <si>
+    <t>Calça Jeans</t>
+  </si>
+  <si>
+    <t>Calça cargo</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Cinto</t>
   </si>
   <si>
+    <t>Camiseta Lisa</t>
+  </si>
+  <si>
     <t>Totais</t>
+  </si>
+  <si>
+    <t>Calça</t>
+  </si>
+  <si>
+    <t>Bolsa</t>
   </si>
   <si>
     <t>Soma de Qtd</t>
   </si>
   <si>
     <t>Total Geral</t>
+  </si>
+  <si>
+    <t>&gt;3</t>
+  </si>
+  <si>
+    <t>Todos os Produtos</t>
+  </si>
+  <si>
+    <t>Contagem de Produtos</t>
+  </si>
+  <si>
+    <t>Soma Qtd em Estoque</t>
+  </si>
+  <si>
+    <t>Media de Qtd em Estoque</t>
+  </si>
+  <si>
+    <t>Média Qtd em Estoque</t>
+  </si>
+  <si>
+    <t>Calça jeans</t>
   </si>
 </sst>
 </file>
@@ -138,7 +173,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,26 +229,93 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="5" tint="-0.249977111117893"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiBold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -237,24 +339,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor theme="5" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -344,17 +445,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="5"/>
-      </top>
-      <bottom style="thin">
-        <color theme="5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -423,21 +513,341 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,29 +874,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -496,37 +997,205 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="4" applyFont="1" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Neutro" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
+    <cellStyle name="Título Meteora" xfId="4" xr:uid="{96C7D433-A0A8-492E-9AB9-AEECBFAFDD2D}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -588,6 +1257,26 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -615,7 +1304,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ECOMMERCE.xlsx]Gráfico dinâmico!Tabela dinâmica1</c:name>
+    <c:name>[METEORA ECOMMERCE.xlsx]Gráfico_dinâmico!Tabela dinâmica1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -626,20 +1315,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
               <a:t>Soma De Produtos</a:t>
             </a:r>
           </a:p>
@@ -658,19 +1350,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -680,7 +1369,7 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:srgbClr val="305496"/>
+            <a:schemeClr val="accent4"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -688,19 +1377,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="637CEF"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="637CEF"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -730,7 +1407,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -756,7 +1433,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Gráfico dinâmico'!$F$3</c:f>
+              <c:f>Gráfico_dinâmico!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -767,7 +1444,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="305496"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -777,7 +1454,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gráfico dinâmico'!$E$4:$E$14</c:f>
+              <c:f>Gráfico_dinâmico!$E$4:$E$14</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -815,7 +1492,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico dinâmico'!$F$4:$F$14</c:f>
+              <c:f>Gráfico_dinâmico!$F$4:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -902,7 +1579,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -914,7 +1591,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="854405639"/>
@@ -973,7 +1650,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="854399495"/>
@@ -1015,7 +1692,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1045,7 +1722,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1601,16 +2278,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1641,7 +2318,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45935.397361689815" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="20" xr:uid="{AD8F9A8F-0D16-41C6-A20A-AFB297A80E10}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:B21" sheet="Gráfico dinâmico"/>
+    <worksheetSource ref="A1:B21" sheet="Gráfico_dinâmico"/>
   </cacheSource>
   <cacheFields count="2">
     <cacheField name="Produtos" numFmtId="0">
@@ -1756,7 +2433,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F4ED2253-0D40-4463-86D3-262DC5EE5906}" name="Tabela dinâmica1" cacheId="283" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F4ED2253-0D40-4463-86D3-262DC5EE5906}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="E3:F14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -1820,6 +2497,57 @@
   <dataFields count="1">
     <dataField name="Soma de Qtd" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="15">
+    <format dxfId="16">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -1844,27 +2572,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BAFB54-D531-4380-966C-3DF4787F43FE}" name="Tabela2" displayName="Tabela2" ref="A3:G24" totalsRowCount="1" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{03BAFB54-D531-4380-966C-3DF4787F43FE}" name="TB_Produtos" displayName="TB_Produtos" ref="A3:G24" totalsRowCount="1" headerRowDxfId="31">
   <autoFilter ref="A3:G23" xr:uid="{B8C4E1B8-6718-4023-A341-FB8023D7819F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G23">
+    <sortCondition descending="1" ref="F4:F23"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4EA4F968-51A1-409A-B9F0-71ABD574C8AD}" name="Produtos" totalsRowLabel="Totais" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{5132B9DC-AA29-4F7D-AB3D-3CF14DAACDE3}" name="Tamanho" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{13CF8F0F-32E2-4EAD-9876-C5E04F7B2A7B}" name="Categoria" dataDxfId="8" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{C40F3598-9FF6-49DE-A73C-33EC5730072C}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{34135C47-98AD-41F6-B374-B25FEE601485}" name="Preço c/ Desconto" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="5">
-      <calculatedColumnFormula>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{4EA4F968-51A1-409A-B9F0-71ABD574C8AD}" name="Produtos" totalsRowLabel="Totais" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{5132B9DC-AA29-4F7D-AB3D-3CF14DAACDE3}" name="Tamanho" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{13CF8F0F-32E2-4EAD-9876-C5E04F7B2A7B}" name="Categoria" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{C40F3598-9FF6-49DE-A73C-33EC5730072C}" name="Preço Unitário" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{34135C47-98AD-41F6-B374-B25FEE601485}" name="Preço c/ Desconto" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
+      <calculatedColumnFormula>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0B063E0D-24C0-4CDF-B848-D34FF8AA5FCD}" name="Qtd" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{464B65B0-0F2F-4D2B-B05F-742933D1B35F}" name="Valor Total" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
-      <calculatedColumnFormula>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{0B063E0D-24C0-4CDF-B848-D34FF8AA5FCD}" name="Qtd" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{464B65B0-0F2F-4D2B-B05F-742933D1B35F}" name="Valor Total" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17">
+      <calculatedColumnFormula>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2159,14 +2890,1084 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CB1F40-726D-41DD-B6D7-BED286EB7F3C}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+    </row>
+    <row r="2" spans="1:9" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7">
+        <v>49.9</v>
+      </c>
+      <c r="E4" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>44.91</v>
+      </c>
+      <c r="F4" s="1">
+        <v>21</v>
+      </c>
+      <c r="G4" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>943.1099999999999</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="72">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="E5" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>62.910000000000004</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>943.65000000000009</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E6" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>63.810000000000009</v>
+      </c>
+      <c r="F6" s="1">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>829.53000000000009</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="E7" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>59.310000000000009</v>
+      </c>
+      <c r="F7" s="1">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>711.72000000000014</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="E8" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>23.31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>279.71999999999997</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7">
+        <v>139.9</v>
+      </c>
+      <c r="E9" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>125.91000000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>1385.0100000000002</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7">
+        <v>29.9</v>
+      </c>
+      <c r="E10" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>26.91</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>269.10000000000002</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7">
+        <v>85.9</v>
+      </c>
+      <c r="E11" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>77.31</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8</v>
+      </c>
+      <c r="G11" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>618.48</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7">
+        <v>92.9</v>
+      </c>
+      <c r="E12" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>83.610000000000014</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6</v>
+      </c>
+      <c r="G12" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>501.66000000000008</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7">
+        <v>32.9</v>
+      </c>
+      <c r="E13" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>29.61</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
+      <c r="G13" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>177.66</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7">
+        <v>89.9</v>
+      </c>
+      <c r="E14" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>80.910000000000011</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>404.55000000000007</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7">
+        <v>399.9</v>
+      </c>
+      <c r="E15" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>359.90999999999997</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>1079.73</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E16" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>233.91</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>467.82</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7">
+        <v>199.9</v>
+      </c>
+      <c r="E17" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>179.91</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>359.82</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7">
+        <v>149.9</v>
+      </c>
+      <c r="E18" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>134.91</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>269.82</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="E19" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>269.90999999999997</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>269.90999999999997</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="7">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E20" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>233.91</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>233.91</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="7">
+        <v>249.9</v>
+      </c>
+      <c r="E21" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>224.91</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>224.91</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="7">
+        <v>249.9</v>
+      </c>
+      <c r="E22" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>224.91</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>224.91</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E23" s="7">
+        <f>TB_Produtos[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
+        <v>233.91</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <f>TB_Produtos[[#This Row],[Preço c/ Desconto]]*TB_Produtos[[#This Row],[Qtd]]</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="7">
+        <f>SUBTOTAL(109,TB_Produtos[Preço Unitário])</f>
+        <v>3083.0000000000005</v>
+      </c>
+      <c r="E24" s="7">
+        <f>SUBTOTAL(109,TB_Produtos[Preço c/ Desconto])</f>
+        <v>2774.7</v>
+      </c>
+      <c r="F24" s="1">
+        <f>SUBTOTAL(109,TB_Produtos[Qtd])</f>
+        <v>132</v>
+      </c>
+      <c r="G24" s="7">
+        <f>SUBTOTAL(109,TB_Produtos[Valor Total])</f>
+        <v>10195.019999999999</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F4:F23">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F23">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285B4971-EA13-4253-B652-96CF820B6589}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="5" max="7" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="55" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="E2" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+    </row>
+    <row r="3" spans="1:7" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37">
+        <f>COUNTA(TB_Produtos[Produtos])</f>
+        <v>20</v>
+      </c>
+      <c r="B4" s="36">
+        <f>SUM(TB_Produtos[Qtd])</f>
+        <v>132</v>
+      </c>
+      <c r="C4" s="35">
+        <f>AVERAGE(TB_Produtos[Qtd])</f>
+        <v>6.6</v>
+      </c>
+      <c r="E4" s="33">
+        <f>COUNTIF(TB_Produtos[],E2)</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="34">
+        <f ca="1">SUMIF(TB_Produtos[], E2, TB_Produtos[Qtd])</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="34">
+        <f ca="1">AVERAGEIF(TB_Produtos[],E2,TB_Produtos[Qtd])</f>
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{0D3E9B14-740A-4370-8A68-512F10B81028}">
+      <formula1>int_nome_produto</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4088128B-E7A3-4960-AC05-47404292EC16}">
+  <dimension ref="A2:H10"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="44"/>
+      <c r="B3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="41">
+        <v>92.9</v>
+      </c>
+      <c r="F8" s="41">
+        <v>83.610000000000014</v>
+      </c>
+      <c r="G8" s="39">
+        <v>6</v>
+      </c>
+      <c r="H8" s="41">
+        <v>501.66000000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="F9" s="3">
+        <v>63.810000000000009</v>
+      </c>
+      <c r="G9" s="4">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3">
+        <v>829.53000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3">
+        <v>32.9</v>
+      </c>
+      <c r="F10" s="3">
+        <v>29.61</v>
+      </c>
+      <c r="G10" s="4">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3">
+        <v>177.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB47A872-9848-4338-9DB1-2B0384AE4846}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="17"/>
+      <c r="E3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="E4" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="17"/>
+      <c r="E5" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="E6" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="E7" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="E8" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="51">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="E9" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="E10" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="E11" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="17"/>
+      <c r="E12" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="E13" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="53">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D084EE-9D64-480B-8D13-D6B6A45493F6}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -2178,1426 +3979,718 @@
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-    </row>
-    <row r="2" spans="1:9" ht="3.75" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75">
-      <c r="A3" s="6" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
+        <v>49.9</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E23" si="0">D4*(1-$I$4)</f>
+        <v>44.91</v>
+      </c>
+      <c r="F4" s="4">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G23" si="1">E4*F4</f>
+        <v>943.1099999999999</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>62.910000000000004</v>
+      </c>
+      <c r="F5" s="4">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>943.65000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>63.810000000000009</v>
+      </c>
+      <c r="F6" s="4">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>829.53000000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>59.310000000000009</v>
+      </c>
+      <c r="F7" s="4">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>711.72000000000014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3">
         <v>25.9</v>
       </c>
-      <c r="E4" s="4">
-        <f>D4*(1-$I$4)</f>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
         <v>23.31</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F8" s="4">
         <v>12</v>
       </c>
-      <c r="G4" s="4">
-        <f>E4*F4</f>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
         <v>279.71999999999997</v>
       </c>
-      <c r="I4" s="25">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D9" s="3">
+        <v>139.9</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>125.91000000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>1385.0100000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3">
         <v>29.9</v>
       </c>
-      <c r="E5" s="4">
-        <f t="shared" ref="E5:E23" si="0">D5*(1-$I$4)</f>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
         <v>26.91</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F10" s="4">
         <v>10</v>
       </c>
-      <c r="G5" s="4">
-        <f t="shared" ref="G5:G23" si="1">E5*F5</f>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
         <v>269.10000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3">
+        <v>85.9</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>77.31</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>618.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <v>92.9</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>83.610000000000014</v>
+      </c>
+      <c r="F12" s="4">
+        <v>6</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>501.66000000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3">
         <v>32.9</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>29.61</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F13" s="4">
         <v>6</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
         <v>177.66</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="D14" s="3">
+        <v>89.9</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>80.910000000000011</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>404.55000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
         <v>399.9</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>359.90999999999997</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F15" s="4">
         <v>3</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="1"/>
         <v>1079.73</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>233.91</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>467.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="D17" s="3">
+        <v>199.9</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>179.91</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>359.82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>149.9</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>134.91</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="1"/>
+        <v>269.82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>269.90999999999997</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>269.90999999999997</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D20" s="3">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>233.91</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="1"/>
+        <v>233.91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3">
         <v>249.9</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>224.91</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G21" s="3">
         <f t="shared" si="1"/>
         <v>224.91</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="8">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="D22" s="3">
+        <v>249.9</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>224.91</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="1"/>
+        <v>224.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="10">
+        <v>38</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="11">
         <v>259.89999999999998</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E23" s="3">
         <f t="shared" si="0"/>
         <v>233.91</v>
       </c>
-      <c r="F9" s="5">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4">
-        <f t="shared" si="1"/>
-        <v>467.82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4">
-        <v>299.89999999999998</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="0"/>
-        <v>269.90999999999997</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="1"/>
-        <v>269.90999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4">
-        <v>85.9</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>77.31</v>
-      </c>
-      <c r="F11" s="5">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="1"/>
-        <v>618.48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4">
-        <v>89.9</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>80.910000000000011</v>
-      </c>
-      <c r="F12" s="5">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>404.55000000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4">
-        <v>92.9</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>83.610000000000014</v>
-      </c>
-      <c r="F13" s="5">
-        <v>6</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="1"/>
-        <v>501.66000000000008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="4">
-        <v>149.9</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>134.91</v>
-      </c>
-      <c r="F14" s="5">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="1"/>
-        <v>269.82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="4">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="0"/>
-        <v>59.310000000000009</v>
-      </c>
-      <c r="F15" s="5">
-        <v>12</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="1"/>
-        <v>711.72000000000014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="4">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="0"/>
-        <v>62.910000000000004</v>
-      </c>
-      <c r="F16" s="5">
-        <v>15</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" si="1"/>
-        <v>943.65000000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="4">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="E17" s="4">
-        <f t="shared" si="0"/>
-        <v>63.810000000000009</v>
-      </c>
-      <c r="F17" s="5">
-        <v>13</v>
-      </c>
-      <c r="G17" s="4">
-        <f t="shared" si="1"/>
-        <v>829.53000000000009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="9">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="4">
-        <v>199.9</v>
-      </c>
-      <c r="E18" s="4">
-        <f t="shared" si="0"/>
-        <v>179.91</v>
-      </c>
-      <c r="F18" s="5">
-        <v>2</v>
-      </c>
-      <c r="G18" s="4">
-        <f t="shared" si="1"/>
-        <v>359.82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="9">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="4">
-        <v>249.9</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="0"/>
-        <v>224.91</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="1"/>
-        <v>224.91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="9">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="4">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="E20" s="4">
-        <f t="shared" si="0"/>
-        <v>233.91</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="F23" s="12">
         <v>0</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G23" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="4">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="0"/>
-        <v>233.91</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="1"/>
-        <v>233.91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="4">
-        <v>139.9</v>
-      </c>
-      <c r="E22" s="4">
-        <f t="shared" si="0"/>
-        <v>125.91000000000001</v>
-      </c>
-      <c r="F22" s="5">
-        <v>11</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="1"/>
-        <v>1385.0100000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="12">
-        <v>49.9</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" si="0"/>
-        <v>44.91</v>
-      </c>
-      <c r="F23" s="13">
-        <v>21</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="1"/>
-        <v>943.1099999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="23" customFormat="1" ht="6" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75">
-      <c r="A25" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="14">
+    <row r="24" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="13">
         <f>SUM(D4:D23)</f>
-        <v>3083.0000000000009</v>
-      </c>
-      <c r="E25" s="14">
+        <v>3083.0000000000005</v>
+      </c>
+      <c r="E25" s="13">
         <f>SUM(E4:E23)</f>
-        <v>2774.6999999999994</v>
-      </c>
-      <c r="F25" s="14">
+        <v>2774.7</v>
+      </c>
+      <c r="F25" s="13">
         <f>SUM(F4:F23)</f>
         <v>132</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="13">
         <f>SUM(G4:G23)</f>
-        <v>10195.02</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="26"/>
+        <v>10195.019999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="66"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="16"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G23">
+    <sortCondition descending="1" ref="F4:F23"/>
+  </sortState>
   <mergeCells count="4">
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <conditionalFormatting sqref="F4:F23">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CB1F40-726D-41DD-B6D7-BED286EB7F3C}">
-  <dimension ref="A1:I24"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637058E0-392B-4A10-9BC5-26B6009D56CD}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="5" max="7" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" s="55" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-    </row>
-    <row r="2" spans="1:9" ht="1.5" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="E2" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
+    </row>
+    <row r="3" spans="1:7" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37">
+        <f>COUNTIF(Tabela_manual!F4:F23,"&gt;0")</f>
+        <v>19</v>
+      </c>
+      <c r="B4" s="36">
+        <f>Tabela_manual!F25</f>
+        <v>132</v>
+      </c>
+      <c r="C4" s="35">
+        <f>AVERAGE(Tabela_manual!F4:F23)</f>
+        <v>6.6</v>
+      </c>
+      <c r="E4" s="33">
+        <f>COUNTIF(int_nome_produto,E2)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="F4" s="34">
+        <f>SUMIF(int_nome_produto,E2,int_quantidade)</f>
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8">
-        <v>25.9</v>
-      </c>
-      <c r="E4" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>23.31</v>
-      </c>
-      <c r="F4" s="1">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>279.71999999999997</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="17">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8">
-        <v>29.9</v>
-      </c>
-      <c r="E5" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>26.91</v>
-      </c>
-      <c r="F5" s="1">
-        <v>10</v>
-      </c>
-      <c r="G5" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>269.10000000000002</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8">
-        <v>32.9</v>
-      </c>
-      <c r="E6" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>29.61</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6</v>
-      </c>
-      <c r="G6" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>177.66</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8">
-        <v>399.9</v>
-      </c>
-      <c r="E7" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>359.90999999999997</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>1079.73</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="8">
-        <v>249.9</v>
-      </c>
-      <c r="E8" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>224.91</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>224.91</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="8">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="E9" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>233.91</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
-      <c r="G9" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>467.82</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="8">
-        <v>299.89999999999998</v>
-      </c>
-      <c r="E10" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>269.90999999999997</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>269.90999999999997</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="8">
-        <v>85.9</v>
-      </c>
-      <c r="E11" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>77.31</v>
-      </c>
-      <c r="F11" s="1">
-        <v>8</v>
-      </c>
-      <c r="G11" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>618.48</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="8">
-        <v>89.9</v>
-      </c>
-      <c r="E12" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>80.910000000000011</v>
-      </c>
-      <c r="F12" s="1">
-        <v>5</v>
-      </c>
-      <c r="G12" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>404.55000000000007</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="8">
-        <v>92.9</v>
-      </c>
-      <c r="E13" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>83.610000000000014</v>
-      </c>
-      <c r="F13" s="1">
-        <v>6</v>
-      </c>
-      <c r="G13" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>501.66000000000008</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="8">
-        <v>149.9</v>
-      </c>
-      <c r="E14" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>134.91</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>269.82</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="8">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="E15" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>59.310000000000009</v>
-      </c>
-      <c r="F15" s="1">
-        <v>12</v>
-      </c>
-      <c r="G15" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>711.72000000000014</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="8">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="E16" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>62.910000000000004</v>
-      </c>
-      <c r="F16" s="1">
-        <v>15</v>
-      </c>
-      <c r="G16" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>943.65000000000009</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="8">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="E17" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>63.810000000000009</v>
-      </c>
-      <c r="F17" s="1">
-        <v>13</v>
-      </c>
-      <c r="G17" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>829.53000000000009</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="8">
-        <v>199.9</v>
-      </c>
-      <c r="E18" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>179.91</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2</v>
-      </c>
-      <c r="G18" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>359.82</v>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1">
-        <v>37</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="8">
-        <v>249.9</v>
-      </c>
-      <c r="E19" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>224.91</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>224.91</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1">
-        <v>38</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="8">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="E20" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>233.91</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="8">
-        <v>259.89999999999998</v>
-      </c>
-      <c r="E21" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>233.91</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>233.91</v>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="8">
-        <v>139.9</v>
-      </c>
-      <c r="E22" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>125.91000000000001</v>
-      </c>
-      <c r="F22" s="1">
-        <v>11</v>
-      </c>
-      <c r="G22" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>1385.0100000000002</v>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="8">
-        <v>49.9</v>
-      </c>
-      <c r="E23" s="8">
-        <f>Tabela2[[#This Row],[Preço Unitário]]*(1-$I$4)</f>
-        <v>44.91</v>
-      </c>
-      <c r="F23" s="1">
-        <v>21</v>
-      </c>
-      <c r="G23" s="8">
-        <f>Tabela2[[#This Row],[Preço c/ Desconto]]*Tabela2[[#This Row],[Qtd]]</f>
-        <v>943.1099999999999</v>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="8">
-        <f>SUBTOTAL(109,Tabela2[Preço Unitário])</f>
-        <v>3083.0000000000009</v>
-      </c>
-      <c r="E24" s="8">
-        <f>SUBTOTAL(109,Tabela2[Preço c/ Desconto])</f>
-        <v>2774.6999999999994</v>
-      </c>
-      <c r="F24" s="1">
-        <f>SUBTOTAL(109,Tabela2[Qtd])</f>
-        <v>132</v>
-      </c>
-      <c r="G24" s="8">
-        <f>SUBTOTAL(109,Tabela2[Valor Total])</f>
-        <v>10195.02</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="G4" s="34">
+        <f>AVERAGEIF(int_nome_produto,E2,int_quantidade)</f>
+        <v>1.5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{6B9AD630-79F6-43E9-B745-34CB355413D5}">
+      <formula1>int_nome_produto</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB47A872-9848-4338-9DB1-2B0384AE4846}">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="E3" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="36">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="36">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="36">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="36">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="36">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>